--- a/OW_nais_einheiten_unique_bh2.xlsx
+++ b/OW_nais_einheiten_unique_bh2.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CCW24sensi\OW__Herbst_anfragen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\develops\sensitivewaldstandorteCH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67CBCF2A-10BB-406C-B83C-4F8B06904390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E8C1F5-4531-4B25-880F-21B7F5FE4541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="8010" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39915" yWindow="1515" windowWidth="29160" windowHeight="13515" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="ow_korr_24.11.24" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ow_korr_24.11.24'!$A$1:$E$98</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -809,14 +812,14 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>115</v>
       </c>
@@ -830,7 +833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -844,7 +847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>5</v>
       </c>
@@ -858,7 +861,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>11</v>
       </c>
@@ -872,7 +875,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>20</v>
       </c>
@@ -886,7 +889,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>21</v>
       </c>
@@ -900,7 +903,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>25</v>
       </c>
@@ -914,7 +917,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>26</v>
       </c>
@@ -928,7 +931,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>30</v>
       </c>
@@ -942,7 +945,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>36</v>
       </c>
@@ -956,7 +959,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>38</v>
       </c>
@@ -970,7 +973,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>41</v>
       </c>
@@ -984,7 +987,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43</v>
       </c>
@@ -998,7 +1001,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>47</v>
       </c>
@@ -1012,7 +1015,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>48</v>
       </c>
@@ -1026,7 +1029,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>50</v>
       </c>
@@ -1040,7 +1043,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>52</v>
       </c>
@@ -1054,7 +1057,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>57</v>
       </c>
@@ -1068,7 +1071,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>58</v>
       </c>
@@ -1082,7 +1085,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>63</v>
       </c>
@@ -1096,7 +1099,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>68</v>
       </c>
@@ -1110,7 +1113,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>70</v>
       </c>
@@ -1124,7 +1127,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>73</v>
       </c>
@@ -1138,7 +1141,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>75</v>
       </c>
@@ -1152,7 +1155,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>77</v>
       </c>
@@ -1166,7 +1169,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>81</v>
       </c>
@@ -1180,7 +1183,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>85</v>
       </c>
@@ -1194,7 +1197,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>91</v>
       </c>
@@ -1208,7 +1211,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>100</v>
       </c>
@@ -1222,7 +1225,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>103</v>
       </c>
@@ -1236,7 +1239,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>111</v>
       </c>
@@ -1250,7 +1253,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>116</v>
       </c>
@@ -1264,7 +1267,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>120</v>
       </c>
@@ -1278,7 +1281,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>125</v>
       </c>
@@ -1292,7 +1295,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>127</v>
       </c>
@@ -1306,7 +1309,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>133</v>
       </c>
@@ -1320,7 +1323,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>143</v>
       </c>
@@ -1334,7 +1337,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>148</v>
       </c>
@@ -1348,7 +1351,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>151</v>
       </c>
@@ -1362,7 +1365,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>159</v>
       </c>
@@ -1376,7 +1379,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>161</v>
       </c>
@@ -1390,7 +1393,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>162</v>
       </c>
@@ -1404,7 +1407,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>163</v>
       </c>
@@ -1418,7 +1421,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>165</v>
       </c>
@@ -1432,7 +1435,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>166</v>
       </c>
@@ -1446,7 +1449,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>168</v>
       </c>
@@ -1460,7 +1463,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>169</v>
       </c>
@@ -1474,7 +1477,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>170</v>
       </c>
@@ -1488,7 +1491,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>180</v>
       </c>
@@ -1502,7 +1505,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>186</v>
       </c>
@@ -1516,7 +1519,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>188</v>
       </c>
@@ -1530,7 +1533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>189</v>
       </c>
@@ -1544,7 +1547,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>195</v>
       </c>
@@ -1558,7 +1561,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>198</v>
       </c>
@@ -1572,7 +1575,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>206</v>
       </c>
@@ -1586,7 +1589,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>208</v>
       </c>
@@ -1600,7 +1603,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>213</v>
       </c>
@@ -1614,7 +1617,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>220</v>
       </c>
@@ -1628,7 +1631,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>224</v>
       </c>
@@ -1642,7 +1645,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>231</v>
       </c>
@@ -1656,7 +1659,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>233</v>
       </c>
@@ -1670,7 +1673,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>236</v>
       </c>
@@ -1684,7 +1687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>240</v>
       </c>
@@ -1698,7 +1701,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>241</v>
       </c>
@@ -1712,7 +1715,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>243</v>
       </c>
@@ -1726,7 +1729,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>251</v>
       </c>
@@ -1740,7 +1743,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>254</v>
       </c>
@@ -1754,7 +1757,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>256</v>
       </c>
@@ -1768,7 +1771,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>260</v>
       </c>
@@ -1782,7 +1785,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>269</v>
       </c>
@@ -1796,7 +1799,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>271</v>
       </c>
@@ -1810,7 +1813,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>273</v>
       </c>
@@ -1824,7 +1827,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>277</v>
       </c>
@@ -1838,7 +1841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>279</v>
       </c>
@@ -1852,7 +1855,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>282</v>
       </c>
@@ -1866,7 +1869,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>283</v>
       </c>
@@ -1880,7 +1883,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>285</v>
       </c>
@@ -1894,7 +1897,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>286</v>
       </c>
@@ -1908,7 +1911,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>289</v>
       </c>
@@ -1922,7 +1925,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>290</v>
       </c>
@@ -1936,7 +1939,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>291</v>
       </c>
@@ -1950,7 +1953,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>295</v>
       </c>
@@ -1964,7 +1967,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>296</v>
       </c>
@@ -1978,7 +1981,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>305</v>
       </c>
@@ -1992,7 +1995,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>306</v>
       </c>
@@ -2006,7 +2009,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>309</v>
       </c>
@@ -2020,7 +2023,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>310</v>
       </c>
@@ -2034,7 +2037,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>312</v>
       </c>
@@ -2048,7 +2051,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>314</v>
       </c>
@@ -2062,7 +2065,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>315</v>
       </c>
@@ -2076,7 +2079,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>317</v>
       </c>
@@ -2090,7 +2093,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>319</v>
       </c>
@@ -2104,7 +2107,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>322</v>
       </c>
@@ -2118,7 +2121,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>323</v>
       </c>
@@ -2132,7 +2135,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>326</v>
       </c>
@@ -2146,7 +2149,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>327</v>
       </c>
@@ -2169,20 +2172,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F510CE3E-4FAA-4B19-885A-51BEB0831A3B}">
   <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7265625" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
     <col min="11" max="15" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>115</v>
       </c>
@@ -2200,7 +2201,7 @@
       </c>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>38</v>
       </c>
@@ -2214,7 +2215,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>73</v>
       </c>
@@ -2228,7 +2229,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>319</v>
       </c>
@@ -2242,7 +2243,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>326</v>
       </c>
@@ -2256,7 +2257,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>327</v>
       </c>
@@ -2270,7 +2271,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>20</v>
       </c>
@@ -2284,7 +2285,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>21</v>
       </c>
@@ -2298,7 +2299,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>25</v>
       </c>
@@ -2312,7 +2313,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>30</v>
       </c>
@@ -2326,7 +2327,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>36</v>
       </c>
@@ -2340,7 +2341,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>41</v>
       </c>
@@ -2354,7 +2355,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43</v>
       </c>
@@ -2368,7 +2369,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>47</v>
       </c>
@@ -2382,7 +2383,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>48</v>
       </c>
@@ -2396,7 +2397,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>50</v>
       </c>
@@ -2410,7 +2411,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>52</v>
       </c>
@@ -2424,7 +2425,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>57</v>
       </c>
@@ -2439,7 +2440,7 @@
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>58</v>
       </c>
@@ -2453,7 +2454,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>63</v>
       </c>
@@ -2467,7 +2468,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>68</v>
       </c>
@@ -2481,7 +2482,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>70</v>
       </c>
@@ -2495,7 +2496,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>77</v>
       </c>
@@ -2509,7 +2510,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>75</v>
       </c>
@@ -2523,7 +2524,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>81</v>
       </c>
@@ -2537,7 +2538,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>85</v>
       </c>
@@ -2551,7 +2552,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>91</v>
       </c>
@@ -2565,7 +2566,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>100</v>
       </c>
@@ -2579,7 +2580,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>103</v>
       </c>
@@ -2593,7 +2594,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>111</v>
       </c>
@@ -2607,7 +2608,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>0</v>
       </c>
@@ -2621,7 +2622,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>116</v>
       </c>
@@ -2635,7 +2636,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>120</v>
       </c>
@@ -2649,7 +2650,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>125</v>
       </c>
@@ -2663,7 +2664,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>127</v>
       </c>
@@ -2678,7 +2679,7 @@
       </c>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>5</v>
       </c>
@@ -2692,7 +2693,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>133</v>
       </c>
@@ -2706,7 +2707,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>143</v>
       </c>
@@ -2720,7 +2721,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>148</v>
       </c>
@@ -2734,7 +2735,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>151</v>
       </c>
@@ -2748,7 +2749,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>159</v>
       </c>
@@ -2763,7 +2764,7 @@
       </c>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>161</v>
       </c>
@@ -2777,7 +2778,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>162</v>
       </c>
@@ -2791,7 +2792,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>163</v>
       </c>
@@ -2805,7 +2806,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>165</v>
       </c>
@@ -2819,7 +2820,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>166</v>
       </c>
@@ -2833,7 +2834,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>168</v>
       </c>
@@ -2847,7 +2848,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>169</v>
       </c>
@@ -2861,7 +2862,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>170</v>
       </c>
@@ -2875,7 +2876,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>180</v>
       </c>
@@ -2889,7 +2890,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>186</v>
       </c>
@@ -2903,7 +2904,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>188</v>
       </c>
@@ -2917,7 +2918,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>189</v>
       </c>
@@ -2931,7 +2932,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>11</v>
       </c>
@@ -2945,7 +2946,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>195</v>
       </c>
@@ -2959,7 +2960,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>198</v>
       </c>
@@ -2973,7 +2974,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>208</v>
       </c>
@@ -2987,7 +2988,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>206</v>
       </c>
@@ -3001,7 +3002,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>213</v>
       </c>
@@ -3015,7 +3016,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>220</v>
       </c>
@@ -3029,7 +3030,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" t="s">
         <v>121</v>
@@ -3041,7 +3042,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>231</v>
       </c>
@@ -3055,7 +3056,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>224</v>
       </c>
@@ -3069,7 +3070,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>233</v>
       </c>
@@ -3083,7 +3084,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>236</v>
       </c>
@@ -3097,7 +3098,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>240</v>
       </c>
@@ -3111,7 +3112,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>241</v>
       </c>
@@ -3125,7 +3126,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>243</v>
       </c>
@@ -3139,7 +3140,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>251</v>
       </c>
@@ -3153,7 +3154,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>254</v>
       </c>
@@ -3167,7 +3168,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>256</v>
       </c>
@@ -3181,7 +3182,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>260</v>
       </c>
@@ -3195,7 +3196,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" t="s">
         <v>122</v>
@@ -3207,7 +3208,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>269</v>
       </c>
@@ -3221,7 +3222,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>271</v>
       </c>
@@ -3235,7 +3236,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>273</v>
       </c>
@@ -3249,7 +3250,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>282</v>
       </c>
@@ -3263,7 +3264,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>285</v>
       </c>
@@ -3277,7 +3278,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>277</v>
       </c>
@@ -3291,7 +3292,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>279</v>
       </c>
@@ -3305,7 +3306,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>283</v>
       </c>
@@ -3319,7 +3320,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>286</v>
       </c>
@@ -3333,7 +3334,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>289</v>
       </c>
@@ -3347,7 +3348,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>290</v>
       </c>
@@ -3362,7 +3363,7 @@
       </c>
       <c r="E84" s="2"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>291</v>
       </c>
@@ -3376,7 +3377,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>295</v>
       </c>
@@ -3390,7 +3391,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>296</v>
       </c>
@@ -3404,7 +3405,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>305</v>
       </c>
@@ -3418,7 +3419,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>306</v>
       </c>
@@ -3432,7 +3433,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>26</v>
       </c>
@@ -3446,7 +3447,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>309</v>
       </c>
@@ -3461,7 +3462,7 @@
       </c>
       <c r="E91" s="2"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>310</v>
       </c>
@@ -3475,7 +3476,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>312</v>
       </c>
@@ -3489,7 +3490,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>314</v>
       </c>
@@ -3503,7 +3504,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>315</v>
       </c>
@@ -3517,7 +3518,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>317</v>
       </c>
@@ -3531,7 +3532,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>322</v>
       </c>
@@ -3545,7 +3546,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>323</v>
       </c>
@@ -3560,6 +3561,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E98" xr:uid="{F510CE3E-4FAA-4B19-885A-51BEB0831A3B}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>